--- a/app_specific_routes/DHS/excel_helpers/templates/dhs_template_districtonly.xlsx
+++ b/app_specific_routes/DHS/excel_helpers/templates/dhs_template_districtonly.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">Shelters in %DISTRICT%</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t xml:space="preserve">TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACITY</t>
   </si>
 </sst>
 </file>
@@ -246,44 +249,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -310,9 +321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>437760</xdr:colOff>
+      <xdr:colOff>437400</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -326,7 +337,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="767880" y="6039000"/>
-          <a:ext cx="281520" cy="329400"/>
+          <a:ext cx="281160" cy="329040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -566,12 +577,12 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -595,19 +606,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="52.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="27.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="42.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="52.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="23.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="22.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,29 +627,35 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
